--- a/QLKS.xlsx
+++ b/QLKS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Xây dựng hệ thống quản lý khách sạn</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Khánh</t>
   </si>
   <si>
-    <t>Xây dựng module giao diện chính chương trình</t>
-  </si>
-  <si>
     <t>Dương</t>
   </si>
   <si>
@@ -117,6 +114,15 @@
   </si>
   <si>
     <t>Thực hiện</t>
+  </si>
+  <si>
+    <t>Xây dựng module quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>Dũng</t>
+  </si>
+  <si>
+    <t>Xây dựng module giao diện chính chương trình (menu trỏ đến module con)</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -497,7 +503,7 @@
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,11 +597,11 @@
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
@@ -605,11 +611,11 @@
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
@@ -619,11 +625,11 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
@@ -633,11 +639,11 @@
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">

--- a/QLKS.xlsx
+++ b/QLKS.xlsx
@@ -104,9 +104,6 @@
     <t>Dương</t>
   </si>
   <si>
-    <t xml:space="preserve">Xây dựng module trả phòng và thuê phòng trong module chính chương trình </t>
-  </si>
-  <si>
     <t>Thắng</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Xây dựng module giao diện chính chương trình (menu trỏ đến module con)</t>
+  </si>
+  <si>
+    <t>Xây dựng module quản lý trả phòng và thông tin phòng khách hàng</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
@@ -569,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
@@ -597,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
@@ -611,11 +611,11 @@
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
@@ -625,11 +625,11 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
@@ -639,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
